--- a/DANE_DO_GENERATORA.xlsx
+++ b/DANE_DO_GENERATORA.xlsx
@@ -14,330 +14,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>Git na wolności</t>
+    <t>Label</t>
   </si>
   <si>
-    <t>Kebab diament</t>
+    <t>a</t>
   </si>
   <si>
-    <t>Rowery wolski</t>
+    <t>b</t>
   </si>
   <si>
-    <t>Mysia pije na czas</t>
+    <t>c</t>
   </si>
   <si>
-    <t>Cykl zycia myszy</t>
+    <t>e</t>
   </si>
   <si>
-    <t>Znikniecie głośnika kuzaka</t>
+    <t>asd</t>
   </si>
   <si>
-    <t>Pasternik rowery</t>
+    <t>f</t>
   </si>
   <si>
-    <t>BabaHasan</t>
+    <t>rtyuj</t>
   </si>
   <si>
-    <t>Wódka z kickerem</t>
+    <t>we</t>
   </si>
   <si>
-    <t>Kręgle KiM</t>
+    <t>wer</t>
   </si>
   <si>
-    <t>NRZN</t>
+    <t>rwe</t>
   </si>
   <si>
-    <t>Bracia Drill</t>
+    <t>ewr</t>
   </si>
   <si>
-    <t>Lesni ruchacze</t>
+    <t>r</t>
   </si>
   <si>
-    <t>Opowieści Stopy z wioski</t>
+    <t>some data</t>
   </si>
   <si>
-    <t>Ogniska bez pedała</t>
+    <t>s</t>
   </si>
   <si>
-    <t>Ogniska na bronxie</t>
+    <t>g</t>
   </si>
   <si>
-    <t>Porsche pańamera</t>
+    <t>df</t>
   </si>
   <si>
-    <t>Powstanie "mysi"</t>
+    <t>gdf</t>
   </si>
   <si>
-    <t>Mietek żul</t>
+    <t>dfg</t>
   </si>
   <si>
-    <t>Melanze u Ciotki</t>
+    <t>qw</t>
   </si>
   <si>
-    <t>Irlander rum</t>
+    <t>sdf</t>
   </si>
   <si>
-    <t>Sylwester z wiertkiem</t>
+    <t>fwer</t>
   </si>
   <si>
-    <t>Wyjscie na staw</t>
+    <t>rf</t>
   </si>
   <si>
-    <t>Rozdupcanie szkoły</t>
+    <t>ergf</t>
   </si>
   <si>
-    <t>Ankiety o dodanie</t>
+    <t>rtyj</t>
   </si>
   <si>
-    <t xml:space="preserve">Jajek z dzikiem </t>
+    <t>thj</t>
   </si>
   <si>
-    <t>Potato Gun</t>
+    <t>er</t>
   </si>
   <si>
-    <t>Sprzedaż godność</t>
+    <t>edafv</t>
   </si>
   <si>
-    <t>pizza Alforno</t>
+    <t>sdv</t>
   </si>
   <si>
-    <t>Harlem Shake</t>
+    <t>zsx</t>
   </si>
   <si>
-    <t>Ruso na ogniskach</t>
+    <t>v</t>
   </si>
   <si>
-    <t>Tequila u Sebana</t>
+    <t>xc</t>
   </si>
   <si>
-    <t>Kradziez wódy sylwestyer</t>
+    <t>zxc</t>
   </si>
   <si>
-    <t xml:space="preserve">Mysia Google Maps </t>
+    <t>h</t>
   </si>
   <si>
-    <t>Tabaka kibel gimanazjum</t>
+    <t>fghj</t>
   </si>
   <si>
-    <t xml:space="preserve">Akademia tesco </t>
+    <t>aerg</t>
   </si>
   <si>
-    <t>Garstka thuje</t>
+    <t>aef</t>
   </si>
   <si>
-    <t>WBW Garstka vs Żul</t>
+    <t>fawe</t>
   </si>
   <si>
-    <t>łokieć w wózku z auchan</t>
+    <t>rg</t>
   </si>
   <si>
-    <t>Flaszka Staw</t>
+    <t>jk</t>
   </si>
   <si>
-    <t>Garstka z Satola</t>
+    <t>ktyuj</t>
   </si>
   <si>
-    <t>Granat</t>
+    <t>sd</t>
   </si>
   <si>
-    <t>Cegła w samochód+patusiara</t>
-  </si>
-  <si>
-    <t>Arszczur Foliarz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seba sen w sigmie </t>
-  </si>
-  <si>
-    <t>Odklejki Garstki</t>
-  </si>
-  <si>
-    <t>Styropianowy interes</t>
-  </si>
-  <si>
-    <t>Land cruiser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rohatyna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">jajek oginsko </t>
-  </si>
-  <si>
-    <t>Sosniak Gleba</t>
-  </si>
-  <si>
-    <t>Tyranie nauczycieli</t>
-  </si>
-  <si>
-    <t>Sosniak vs Klaudia</t>
-  </si>
-  <si>
-    <t>ZetPeTe</t>
-  </si>
-  <si>
-    <t>Satola BLIK</t>
-  </si>
-  <si>
-    <t>Mamut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wojtek - Express do kawy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zagubiony Bartek po wigili </t>
-  </si>
-  <si>
-    <t>Kutas Grycza</t>
-  </si>
-  <si>
-    <t>Pały u Czarnego</t>
-  </si>
-  <si>
-    <t>King of the North</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bełty leona </t>
-  </si>
-  <si>
-    <t>Pijany łosiek</t>
-  </si>
-  <si>
-    <t>Interesy Łosiek</t>
-  </si>
-  <si>
-    <t>Lokiec/Sweter/Zyla/Toczek/Kraweznik vs zbychu</t>
-  </si>
-  <si>
-    <t>Plywanie w wisle</t>
-  </si>
-  <si>
-    <t>sprzęt "muzyczny"</t>
-  </si>
-  <si>
-    <t>Garstka kolano</t>
-  </si>
-  <si>
-    <t>Kowal na dzialce u Kuzaka</t>
-  </si>
-  <si>
-    <t>Walas Wywiady</t>
-  </si>
-  <si>
-    <t>Pandemia na mielinie</t>
-  </si>
-  <si>
-    <t>Zmija w Londynie</t>
-  </si>
-  <si>
-    <t>Tuje w kiblu</t>
-  </si>
-  <si>
-    <t>Pajdak Magii</t>
-  </si>
-  <si>
-    <t>24 karaty</t>
-  </si>
-  <si>
-    <t>Ballada kowala</t>
-  </si>
-  <si>
-    <t>Rower wizjonerow</t>
-  </si>
-  <si>
-    <t>Zemsta BMT</t>
-  </si>
-  <si>
-    <t>Konus zarzygane termy</t>
-  </si>
-  <si>
-    <t>Diss na garstke</t>
-  </si>
-  <si>
-    <t>Jajek spirytus</t>
-  </si>
-  <si>
-    <t>Numery z toitoiami</t>
-  </si>
-  <si>
-    <t>Beta sosniaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kopalino </t>
-  </si>
-  <si>
-    <t>Jajek na placu</t>
-  </si>
-  <si>
-    <t>Maluch na placyku</t>
-  </si>
-  <si>
-    <t>fidyk cwel cipka</t>
-  </si>
-  <si>
-    <t>Tico</t>
-  </si>
-  <si>
-    <t>Kondziu Deska do Prasowania</t>
-  </si>
-  <si>
-    <t>Czeluść 2019</t>
-  </si>
-  <si>
-    <t>Pasowanie Jajka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mysia plazowicz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bronowicki Huragan </t>
-  </si>
-  <si>
-    <t>Jajek Parapet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jajek blinki </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sranie na deske </t>
-  </si>
-  <si>
-    <t>Kostek Kryspinow</t>
-  </si>
-  <si>
-    <t>Kondziu u Wojtka w Pokoju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kronika cytatów </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kret nie pomoże </t>
-  </si>
-  <si>
-    <t>Garus benjamin+schody+pwinica</t>
-  </si>
-  <si>
-    <t>Jajek buty</t>
-  </si>
-  <si>
-    <t>Arszczur+Wiertek(50)</t>
-  </si>
-  <si>
-    <t>Znak Maluch Golab</t>
-  </si>
-  <si>
-    <t>Jelonek festyn brono</t>
-  </si>
-  <si>
-    <t>Sranie do miski</t>
-  </si>
-  <si>
-    <t>Label</t>
+    <t>fasd</t>
   </si>
 </sst>
 </file>
@@ -697,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -716,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -730,7 +538,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -739,7 +547,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -747,7 +555,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -755,7 +563,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -773,7 +581,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -781,7 +589,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -789,7 +597,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -797,7 +605,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -815,7 +623,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -823,7 +631,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -831,7 +639,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -839,7 +647,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>2</v>
@@ -847,7 +655,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B16" s="3">
         <v>2</v>
@@ -855,7 +663,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17" s="3">
         <v>2</v>
@@ -863,7 +671,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="3">
         <v>2</v>
@@ -872,7 +680,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3">
         <v>2</v>
@@ -880,7 +688,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B20" s="3">
         <v>2</v>
@@ -888,7 +696,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B21" s="3">
         <v>2</v>
@@ -896,7 +704,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
@@ -904,7 +712,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
@@ -912,7 +720,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3">
         <v>2</v>
@@ -920,7 +728,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B25" s="3">
         <v>2</v>
@@ -928,7 +736,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B26" s="3">
         <v>2</v>
@@ -936,7 +744,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B27" s="3">
         <v>2</v>
@@ -944,7 +752,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B28" s="3">
         <v>3</v>
@@ -952,7 +760,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B29" s="3">
         <v>3</v>
@@ -960,7 +768,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B30" s="3">
         <v>3</v>
@@ -968,7 +776,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B31" s="3">
         <v>3</v>
@@ -976,7 +784,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B32" s="3">
         <v>3</v>
@@ -984,7 +792,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B33" s="3">
         <v>3</v>
@@ -992,7 +800,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B34" s="3">
         <v>3</v>
@@ -1000,7 +808,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3">
         <v>3</v>
@@ -1008,7 +816,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B36" s="3">
         <v>3</v>
@@ -1016,7 +824,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B37" s="3">
         <v>3</v>
@@ -1024,7 +832,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B38" s="3">
         <v>3</v>
@@ -1032,7 +840,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B39" s="3">
         <v>3</v>
@@ -1040,7 +848,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B40" s="3">
         <v>3</v>
@@ -1048,7 +856,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B41" s="3">
         <v>4</v>
@@ -1056,7 +864,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B42" s="3">
         <v>4</v>
@@ -1064,7 +872,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B43" s="3">
         <v>4</v>
@@ -1072,7 +880,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B44" s="3">
         <v>4</v>
@@ -1080,7 +888,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="B45" s="3">
         <v>4</v>
@@ -1088,7 +896,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B46" s="3">
         <v>4</v>
@@ -1096,7 +904,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B47" s="3">
         <v>4</v>
@@ -1104,7 +912,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="B48" s="3">
         <v>4</v>
@@ -1112,7 +920,7 @@
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B49" s="3">
         <v>4</v>
@@ -1120,7 +928,7 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="B50" s="3">
         <v>4</v>
@@ -1128,7 +936,7 @@
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="B51" s="3">
         <v>4</v>
@@ -1136,7 +944,7 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B52" s="3">
         <v>4</v>
@@ -1144,7 +952,7 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B53" s="3">
         <v>4</v>
@@ -1152,7 +960,7 @@
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="B54" s="3">
         <v>5</v>
@@ -1160,7 +968,7 @@
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B55" s="3">
         <v>5</v>
@@ -1168,7 +976,7 @@
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="B56" s="3">
         <v>5</v>
@@ -1176,7 +984,7 @@
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B57" s="3">
         <v>5</v>
@@ -1184,7 +992,7 @@
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="B58" s="3">
         <v>5</v>
@@ -1192,7 +1000,7 @@
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="B59" s="3">
         <v>5</v>
@@ -1200,7 +1008,7 @@
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="B60" s="3">
         <v>5</v>
@@ -1208,7 +1016,7 @@
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="B61" s="3">
         <v>5</v>
@@ -1216,7 +1024,7 @@
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3">
         <v>5</v>
@@ -1224,7 +1032,7 @@
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B63" s="3">
         <v>5</v>
@@ -1232,7 +1040,7 @@
     </row>
     <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="B64" s="3">
         <v>5</v>
@@ -1250,7 +1058,7 @@
     </row>
     <row r="65" spans="1:14" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3">
         <v>5</v>
@@ -1268,7 +1076,7 @@
     </row>
     <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="B66" s="3">
         <v>5</v>
@@ -1286,7 +1094,7 @@
     </row>
     <row r="67" spans="1:14" ht="15.75" customHeight="1">
       <c r="A67" s="11" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B67" s="3">
         <v>6</v>
@@ -1304,7 +1112,7 @@
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="11" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="B68" s="3">
         <v>6</v>
@@ -1322,7 +1130,7 @@
     </row>
     <row r="69" spans="1:14" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="B69" s="12">
         <v>7</v>
@@ -1340,7 +1148,7 @@
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B70" s="3">
         <v>6</v>
@@ -1358,7 +1166,7 @@
     </row>
     <row r="71" spans="1:14" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="B71" s="3">
         <v>6</v>
@@ -1376,7 +1184,7 @@
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="11" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="B72" s="3">
         <v>6</v>
@@ -1393,8 +1201,8 @@
       <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A73" s="11" t="s">
-        <v>72</v>
+      <c r="A73" s="11">
+        <v>123</v>
       </c>
       <c r="B73" s="3">
         <v>6</v>
@@ -1411,8 +1219,8 @@
       <c r="N73" s="10"/>
     </row>
     <row r="74" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A74" s="13" t="s">
-        <v>73</v>
+      <c r="A74" s="13">
+        <v>123</v>
       </c>
       <c r="B74" s="3">
         <v>6</v>
@@ -1429,8 +1237,8 @@
       <c r="N74" s="10"/>
     </row>
     <row r="75" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A75" s="11" t="s">
-        <v>74</v>
+      <c r="A75" s="11">
+        <v>12</v>
       </c>
       <c r="B75" s="3">
         <v>6</v>
@@ -1447,8 +1255,8 @@
       <c r="N75" s="10"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A76" s="11" t="s">
-        <v>75</v>
+      <c r="A76" s="11">
+        <v>312</v>
       </c>
       <c r="B76" s="3">
         <v>6</v>
@@ -1465,8 +1273,8 @@
       <c r="N76" s="10"/>
     </row>
     <row r="77" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A77" s="11" t="s">
-        <v>76</v>
+      <c r="A77" s="11">
+        <v>34</v>
       </c>
       <c r="B77" s="3">
         <v>6</v>
@@ -1483,8 +1291,8 @@
       <c r="N77" s="10"/>
     </row>
     <row r="78" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A78" s="11" t="s">
-        <v>77</v>
+      <c r="A78" s="11">
+        <v>4</v>
       </c>
       <c r="B78" s="3">
         <v>6</v>
@@ -1501,8 +1309,8 @@
       <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A79" s="11" t="s">
-        <v>78</v>
+      <c r="A79" s="11">
+        <v>1234</v>
       </c>
       <c r="B79" s="3">
         <v>6</v>
@@ -1519,8 +1327,8 @@
       <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A80" s="11" t="s">
-        <v>79</v>
+      <c r="A80" s="11">
+        <v>5</v>
       </c>
       <c r="B80" s="3">
         <v>6</v>
@@ -1537,8 +1345,8 @@
       <c r="N80" s="10"/>
     </row>
     <row r="81" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A81" s="11" t="s">
-        <v>80</v>
+      <c r="A81" s="11">
+        <v>345</v>
       </c>
       <c r="B81" s="3">
         <v>6</v>
@@ -1556,7 +1364,7 @@
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="11" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="B82" s="3">
         <v>6</v>
@@ -1574,7 +1382,7 @@
     </row>
     <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="11" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="B83" s="3">
         <v>6</v>
@@ -1592,7 +1400,7 @@
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1">
       <c r="A84" s="11" t="s">
-        <v>83</v>
+        <v>27</v>
       </c>
       <c r="B84" s="3">
         <v>6</v>
@@ -1610,7 +1418,7 @@
     </row>
     <row r="85" spans="1:14" ht="15.75" customHeight="1">
       <c r="A85" s="11" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="B85" s="3">
         <v>7</v>
@@ -1628,7 +1436,7 @@
     </row>
     <row r="86" spans="1:14" ht="15.75" customHeight="1">
       <c r="A86" s="11" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="B86" s="12">
         <v>8</v>
@@ -1646,7 +1454,7 @@
     </row>
     <row r="87" spans="1:14" ht="15.75" customHeight="1">
       <c r="A87" s="11" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="B87" s="3">
         <v>7</v>
@@ -1664,7 +1472,7 @@
     </row>
     <row r="88" spans="1:14" ht="15.75" customHeight="1">
       <c r="A88" s="11" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B88" s="3">
         <v>7</v>
@@ -1682,7 +1490,7 @@
     </row>
     <row r="89" spans="1:14" ht="15.75" customHeight="1">
       <c r="A89" s="11" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B89" s="3">
         <v>7</v>
@@ -1700,7 +1508,7 @@
     </row>
     <row r="90" spans="1:14" ht="15.75" customHeight="1">
       <c r="A90" s="11" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="B90" s="3">
         <v>7</v>
@@ -1718,7 +1526,7 @@
     </row>
     <row r="91" spans="1:14" ht="15.75" customHeight="1">
       <c r="A91" s="11" t="s">
-        <v>90</v>
+        <v>31</v>
       </c>
       <c r="B91" s="3">
         <v>7</v>
@@ -1736,7 +1544,7 @@
     </row>
     <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="11" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B92" s="3">
         <v>7</v>
@@ -1754,7 +1562,7 @@
     </row>
     <row r="93" spans="1:14" ht="15.75" customHeight="1">
       <c r="A93" s="11" t="s">
-        <v>92</v>
+        <v>34</v>
       </c>
       <c r="B93" s="3">
         <v>7</v>
@@ -1772,7 +1580,7 @@
     </row>
     <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="11" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="B94" s="3">
         <v>7</v>
@@ -1790,7 +1598,7 @@
     </row>
     <row r="95" spans="1:14" ht="15.75" customHeight="1">
       <c r="A95" s="11" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="B95" s="3">
         <v>7</v>
@@ -1808,7 +1616,7 @@
     </row>
     <row r="96" spans="1:14" ht="15.75" customHeight="1">
       <c r="A96" s="11" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="B96" s="3">
         <v>7</v>
@@ -1826,7 +1634,7 @@
     </row>
     <row r="97" spans="1:14" ht="15.75" customHeight="1">
       <c r="A97" s="11" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="B97" s="3">
         <v>8</v>
@@ -1844,7 +1652,7 @@
     </row>
     <row r="98" spans="1:14" ht="15.75" customHeight="1">
       <c r="A98" s="11" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B98" s="3">
         <v>8</v>
@@ -1862,7 +1670,7 @@
     </row>
     <row r="99" spans="1:14" ht="15.75" customHeight="1">
       <c r="A99" s="11" t="s">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="B99" s="3">
         <v>8</v>
@@ -1880,7 +1688,7 @@
     </row>
     <row r="100" spans="1:14" ht="15.75" customHeight="1">
       <c r="A100" s="11" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
       <c r="B100" s="12">
         <v>6</v>
@@ -1898,7 +1706,7 @@
     </row>
     <row r="101" spans="1:14" ht="15.75" customHeight="1">
       <c r="A101" s="11" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="B101" s="3">
         <v>8</v>
@@ -1916,7 +1724,7 @@
     </row>
     <row r="102" spans="1:14" ht="15.75" customHeight="1">
       <c r="A102" s="11" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="B102" s="3">
         <v>8</v>
@@ -1934,7 +1742,7 @@
     </row>
     <row r="103" spans="1:14" ht="15.75" customHeight="1">
       <c r="A103" s="11" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B103" s="3">
         <v>8</v>
@@ -1952,7 +1760,7 @@
     </row>
     <row r="104" spans="1:14" ht="15.75" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="B104" s="3">
         <v>8</v>
@@ -1970,7 +1778,7 @@
     </row>
     <row r="105" spans="1:14" ht="15.75" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B105" s="3">
         <v>8</v>
@@ -1978,7 +1786,7 @@
     </row>
     <row r="106" spans="1:14" ht="15.75" customHeight="1">
       <c r="A106" s="11" t="s">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="B106" s="3">
         <v>8</v>
@@ -1986,7 +1794,7 @@
     </row>
     <row r="107" spans="1:14" ht="15.75" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="B107" s="3">
         <v>8</v>
